--- a/downloaded_files/CMPS301_Tutorial-35532.xlsx
+++ b/downloaded_files/CMPS301_Tutorial-35532.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Omar walid saber mohamed homos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1162125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مايكل توفيق حنا سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michael Tawfik Hanna Soliman</x:t>
   </x:si>
   <x:si>
     <x:t>1210025</x:t>
@@ -272,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -951,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6643621181</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4479651273</x:v>
+        <x:v>45906.6643621181</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45909.4479651273</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6668079861</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1079,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45906.6668079861</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1096,6 +1105,38 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45906.6647606134</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS301_Tutorial-35532.xlsx
+++ b/downloaded_files/CMPS301_Tutorial-35532.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Mohamed ElSayed Shaaban ElSayed Abdelaziz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد رضا محمد عثمان دسوقى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Reda Mohamed Osman</x:t>
   </x:si>
   <x:si>
     <x:t>1220202</x:t>
@@ -281,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1024,7 +1015,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4479651273</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1047,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45906.6668079861</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1079,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6668079861</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1105,38 +1096,6 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45906.6647606134</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
